--- a/data/database_of_contracts.xlsx
+++ b/data/database_of_contracts.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="60" windowWidth="14355" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Folder" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,19 +48,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -349,36 +415,385 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.85546875" customWidth="1" min="2" max="2"/>
+    <col width="12.7109375" customWidth="1" min="3" max="3"/>
+    <col width="12.5703125" customWidth="1" min="4" max="4"/>
+    <col width="13.5703125" customWidth="1" min="5" max="5"/>
+    <col width="21.42578125" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Марка авто</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>VIN</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Индекс</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Папка</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Адрес</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Паспорт (серия и номер)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Кем выдан</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Дата выдачи</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Код подразделения</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Телефон</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Дата создания папки</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Иванович</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>WBAJP31010CD00660</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78 08</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Иванов_bmw_vin WBAJP31010CD00660_78 08</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0304 № 345345</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ГУ МВД</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>21.05.1999</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>345-678</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>+8 918 342-34-35</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>25.05.1998</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BMW 520D</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>WBAJP31010CD00661</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Иванов_BMW 520D_vin WBAJP31010CD00662_49 22</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Г. МОСКВА, УЛ. БЕХТЕРЕВА, Д. 41, К. 4, КВ. 644</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4622 № 704440</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>23.08.2022</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>500-049</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>16.04.1991</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Терешкова</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Терешкова</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Терешкова</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BMW 520D</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>WBAJP31010CD00662</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Терешкова_BMW 520D_vin WBAJP31010CD00662_49 22</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4622 № 70</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ГУ МВД РОССИ</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>23.08.2022</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>500-049</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>16.04.1991</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/database_of_contracts.xlsx
+++ b/data/database_of_contracts.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
@@ -754,6 +754,82 @@
       <c r="P4" t="inlineStr">
         <is>
           <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>fnc1515262dhfjfcn</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1_1_vin fnc1515262dhfjfcn_67</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>17.09.2025</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>+7 918 413-32-45</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>17.09.2025</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>17.09.2025</t>
         </is>
       </c>
     </row>

--- a/data/database_of_contracts.xlsx
+++ b/data/database_of_contracts.xlsx
@@ -688,12 +688,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Терешкова</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Терешкова</t>
+          <t>Владимирона</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -816,7 +816,6 @@
           <t>17.09.2025</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>+7 918 413-32-45</t>

--- a/data/database_of_contracts.xlsx
+++ b/data/database_of_contracts.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -999,6 +999,50 @@
         </is>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>02.10.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BMW 320i xDrive</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>WBA71FF090FN26787</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>55 35</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>_BMW 320i xDrive_vin WBA71FF090FN26787_55 35</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>55 35</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
         <is>
           <t>02.10.2025</t>
         </is>

--- a/data/database_of_contracts.xlsx
+++ b/data/database_of_contracts.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1008,9 +1008,6 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>BMW 320i xDrive</t>
@@ -1031,20 +1028,94 @@
           <t>_BMW 320i xDrive_vin WBA71FF090FN26787_55 35</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>55 35</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>02.10.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Теличенко</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CHEVROLET EQUINOX LT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2GNAXKEV6M6147251</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>80 46</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Теличенко_CHEVROLET EQUINOX LT_vin 2GNAXKEV6M6147251_80 46</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>РОСТОВСКАЯ ОБЛ. Р-Н БОКОВСКИЙ, СТ-ЦА БОКОВСКАЯ, ПЕР. ЭНЕРГЕТИКОВ, Д. 8</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6010 № 893400</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ТП В СТАНИЦЕ БОКОВСКАЯ МЕЖРАЙОННОГО ОТДЕЛЕНИЯ УФМС РОССИИ ПО РОСТОВСКОЙ ОБЛ. В СЛОБОДЕ КАШАРЫ</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>09.02.2011</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>610-022</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>+7 938 102-80-46</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>02.02.1991</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>03.10.2025</t>
         </is>
       </c>
     </row>

--- a/data/database_of_contracts.xlsx
+++ b/data/database_of_contracts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>№</t>
   </si>
@@ -64,120 +64,6 @@
   </si>
   <si>
     <t>Дата создания папки</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>bmw</t>
-  </si>
-  <si>
-    <t>78 08</t>
-  </si>
-  <si>
-    <t>21.05.1999</t>
-  </si>
-  <si>
-    <t>25.05.1998</t>
-  </si>
-  <si>
-    <t>16.09.2025</t>
-  </si>
-  <si>
-    <t>BMW 520D</t>
-  </si>
-  <si>
-    <t>49 22</t>
-  </si>
-  <si>
-    <t>23.08.2022</t>
-  </si>
-  <si>
-    <t>16.04.1991</t>
-  </si>
-  <si>
-    <t>Анна</t>
-  </si>
-  <si>
-    <t>Владимирона</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>17.09.2025</t>
-  </si>
-  <si>
-    <t>Валерий</t>
-  </si>
-  <si>
-    <t>Валерьевич</t>
-  </si>
-  <si>
-    <t>FORD ESCAPE</t>
-  </si>
-  <si>
-    <t>34 15</t>
-  </si>
-  <si>
-    <t>14.01.2020</t>
-  </si>
-  <si>
-    <t>12.08.1973</t>
-  </si>
-  <si>
-    <t>02.10.2025</t>
-  </si>
-  <si>
-    <t>Павел</t>
-  </si>
-  <si>
-    <t>Геннадьевич</t>
-  </si>
-  <si>
-    <t>MERCEDES-BENZ V</t>
-  </si>
-  <si>
-    <t>55 35</t>
-  </si>
-  <si>
-    <t>02.09.2019</t>
-  </si>
-  <si>
-    <t>09.08.1974</t>
-  </si>
-  <si>
-    <t>BMW 320i xDrive</t>
-  </si>
-  <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
-    <t>Владимировна</t>
-  </si>
-  <si>
-    <t>CHEVROLET EQUINOX LT</t>
-  </si>
-  <si>
-    <t>80 46</t>
-  </si>
-  <si>
-    <t>09.02.2011</t>
-  </si>
-  <si>
-    <t>02.02.1991</t>
-  </si>
-  <si>
-    <t>03.10.2025</t>
   </si>
 </sst>
 </file>
@@ -530,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +429,7 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -596,211 +483,6 @@
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
